--- a/docs/hashtag_results.xlsx
+++ b/docs/hashtag_results.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT-RitBigdata\RIT-BigData\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="21075" windowHeight="10035"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="21075" windowHeight="10035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="hashtags1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="111">
   <si>
     <t>RT</t>
   </si>
@@ -343,6 +348,12 @@
   </si>
   <si>
     <t>10DaysUntilDemi</t>
+  </si>
+  <si>
+    <t>Hashtag</t>
+  </si>
+  <si>
+    <t>Frequency</t>
   </si>
 </sst>
 </file>
@@ -389,6 +400,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -437,7 +451,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -472,7 +486,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -681,666 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B80"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="45.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>75</v>
-      </c>
-      <c r="B76">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>79</v>
-      </c>
-      <c r="B80">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,111 +708,111 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>117</v>
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>46</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>32</v>
@@ -1462,15 +820,15 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>31</v>
@@ -1478,50 +836,50 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1529,20 +887,686 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
       </c>
       <c r="B25">
         <v>22</v>
@@ -1550,15 +1574,15 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="B26">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="B27">
         <v>21</v>
@@ -1566,31 +1590,31 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B28">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="B29">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B31">
         <v>15</v>
@@ -1598,7 +1622,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="B32">
         <v>15</v>
@@ -1606,15 +1630,15 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B33">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B34">
         <v>14</v>
@@ -1622,7 +1646,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>14</v>
@@ -1630,7 +1654,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>14</v>
@@ -1638,7 +1662,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="B37">
         <v>14</v>
@@ -1646,7 +1670,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>14</v>
@@ -1654,7 +1678,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="B39">
         <v>14</v>
@@ -1662,7 +1686,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B40">
         <v>14</v>
@@ -1670,7 +1694,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="B41">
         <v>14</v>
@@ -1678,15 +1702,15 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="B42">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="B43">
         <v>13</v>
@@ -1694,7 +1718,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="B44">
         <v>13</v>
@@ -1702,7 +1726,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B45">
         <v>13</v>
@@ -1710,23 +1734,23 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B46">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="B47">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="B48">
         <v>11</v>
@@ -1734,7 +1758,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B49">
         <v>11</v>
@@ -1742,7 +1766,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="B50">
         <v>11</v>
@@ -1750,7 +1774,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="B51">
         <v>11</v>
@@ -1758,7 +1782,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>11</v>
@@ -1766,7 +1790,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B53">
         <v>11</v>
@@ -1774,7 +1798,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="B54">
         <v>11</v>
@@ -1782,15 +1806,15 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="B55">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B56">
         <v>10</v>
@@ -1798,7 +1822,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="B57">
         <v>10</v>
@@ -1806,7 +1830,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="B58">
         <v>10</v>
@@ -1814,7 +1838,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="B59">
         <v>10</v>
@@ -1822,7 +1846,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="B60">
         <v>10</v>
@@ -1830,7 +1854,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B61">
         <v>10</v>
@@ -1838,7 +1862,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B62">
         <v>10</v>
@@ -1846,7 +1870,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B63">
         <v>10</v>
@@ -1854,7 +1878,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B64">
         <v>10</v>
@@ -1862,7 +1886,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="B65">
         <v>10</v>
@@ -1870,7 +1894,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="B66">
         <v>10</v>
@@ -1878,7 +1902,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="B67">
         <v>10</v>
@@ -1886,7 +1910,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="B68">
         <v>10</v>
@@ -1894,9 +1918,17 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>108</v>
       </c>
-      <c r="B69">
+      <c r="B70">
         <v>10</v>
       </c>
     </row>

--- a/docs/hashtag_results.xlsx
+++ b/docs/hashtag_results.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="113">
   <si>
     <t>RT</t>
   </si>
@@ -350,10 +350,16 @@
     <t>10DaysUntilDemi</t>
   </si>
   <si>
-    <t>Hashtag</t>
-  </si>
-  <si>
     <t>Frequency</t>
+  </si>
+  <si>
+    <t>teamfollowback</t>
+  </si>
+  <si>
+    <t>Hashtag - Time Slice 2</t>
+  </si>
+  <si>
+    <t>Hashtag - Time Slice 1</t>
   </si>
 </sst>
 </file>
@@ -698,7 +704,7 @@
   <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,10 +714,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
         <v>109</v>
-      </c>
-      <c r="B1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -732,7 +738,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="B4">
         <v>79</v>
@@ -1364,7 +1370,7 @@
   <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,10 +1380,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" t="s">
         <v>109</v>
-      </c>
-      <c r="B1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
